--- a/biology/Médecine/Muscle_auriculaire_postérieur/Muscle_auriculaire_postérieur.xlsx
+++ b/biology/Médecine/Muscle_auriculaire_postérieur/Muscle_auriculaire_postérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_auriculaire_post%C3%A9rieur</t>
+          <t>Muscle_auriculaire_postérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle auriculaire postérieur est un le muscle auriculaire situé derrière le pavillon de l'oreille.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_auriculaire_post%C3%A9rieur</t>
+          <t>Muscle_auriculaire_postérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Il nait de la partie mastoïde de l'os temporal
-Trajet
-En deux ou trois faisceaux, il se dirige vers l'avant.
-Terminaison
-Il se termine sur la surface crânienne du pavillon de l'oreille.
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il nait de la partie mastoïde de l'os temporal
 </t>
         </is>
       </c>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_auriculaire_post%C3%A9rieur</t>
+          <t>Muscle_auriculaire_postérieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Innervation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le muscle auriculaire postérieur est innervé par le nerf auriculaire postérieur, une branche du nerf facial (VII)[1],[2].
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En deux ou trois faisceaux, il se dirige vers l'avant.
 </t>
         </is>
       </c>
@@ -560,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_auriculaire_post%C3%A9rieur</t>
+          <t>Muscle_auriculaire_postérieur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,13 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vascularisation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le muscle auriculaire postérieur est irrigué par des branches de l'artère auriculaire postérieure, qui se prolongent profondément dans le muscle[1].
-Il est drainé par la veine auriculaire postérieure qui accompagne l'artère[1].
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se termine sur la surface crânienne du pavillon de l'oreille.
 </t>
         </is>
       </c>
@@ -592,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_auriculaire_post%C3%A9rieur</t>
+          <t>Muscle_auriculaire_postérieur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,14 +631,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Action</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle auriculaire postérieur tire le pavillon de l'oreille vers l'arrière. Cet effet est généralement très léger, bien que certaines personnes puissent remuer les oreilles en raison d'un mouvement musculaire plus important[1].
-Réflexe post-auriculaire
-Le réflexe post-auriculaire ou réflexe de Preyer (rotation rapide du pavillon auriculaire chez certains animaux en réponse à des sons soudains et relativement forts, première fois décrite en 1882 chez le cochon d'Inde par le physiologiste Preyer) est une réponse musculaire vestigiale chez l'homme qui agit pour tirer l'oreille vers le haut et vers l'arrière[3]. La recherche suggère que les circuits neuronaux pour l'orientation du pavillon de l'oreille ont survécu dans un état vestigial pendant plus de 25 millions d'années.
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle auriculaire postérieur est innervé par le nerf auriculaire postérieur, une branche du nerf facial (VII),.
 </t>
         </is>
       </c>
@@ -625,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_auriculaire_post%C3%A9rieur</t>
+          <t>Muscle_auriculaire_postérieur</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,12 +664,118 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle auriculaire postérieur est irrigué par des branches de l'artère auriculaire postérieure, qui se prolongent profondément dans le muscle.
+Il est drainé par la veine auriculaire postérieure qui accompagne l'artère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_auriculaire_postérieur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_auriculaire_post%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle auriculaire postérieur tire le pavillon de l'oreille vers l'arrière. Cet effet est généralement très léger, bien que certaines personnes puissent remuer les oreilles en raison d'un mouvement musculaire plus important.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muscle_auriculaire_postérieur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_auriculaire_post%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Réflexe post-auriculaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le réflexe post-auriculaire ou réflexe de Preyer (rotation rapide du pavillon auriculaire chez certains animaux en réponse à des sons soudains et relativement forts, première fois décrite en 1882 chez le cochon d'Inde par le physiologiste Preyer) est une réponse musculaire vestigiale chez l'homme qui agit pour tirer l'oreille vers le haut et vers l'arrière. La recherche suggère que les circuits neuronaux pour l'orientation du pavillon de l'oreille ont survécu dans un état vestigial pendant plus de 25 millions d'années.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Muscle_auriculaire_postérieur</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_auriculaire_post%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Intérêt clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si le muscle auriculaire postérieur s'insère dans une partie inhabituelle du pavillon de l'oreille, cela peut provoquer des oreilles décollées[4] .
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si le muscle auriculaire postérieur s'insère dans une partie inhabituelle du pavillon de l'oreille, cela peut provoquer des oreilles décollées .
 </t>
         </is>
       </c>
